--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf15-Klb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf15-Klb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Fgf15</t>
   </si>
   <si>
     <t>Klb</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.16803684324576</v>
+        <v>0.216573</v>
       </c>
       <c r="H2">
-        <v>0.16803684324576</v>
+        <v>0.433146</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7890929340172668</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7760929277509313</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7357925903921571</v>
+        <v>0.7952275</v>
       </c>
       <c r="N2">
-        <v>0.7357925903921571</v>
+        <v>1.590455</v>
       </c>
       <c r="O2">
-        <v>0.281053694869434</v>
+        <v>0.2672394783835147</v>
       </c>
       <c r="P2">
-        <v>0.281053694869434</v>
+        <v>0.2127589984352641</v>
       </c>
       <c r="Q2">
-        <v>0.1236402641731186</v>
+        <v>0.1722248053575</v>
       </c>
       <c r="R2">
-        <v>0.1236402641731186</v>
+        <v>0.68889922143</v>
       </c>
       <c r="S2">
-        <v>0.281053694869434</v>
+        <v>0.2108767840828915</v>
       </c>
       <c r="T2">
-        <v>0.281053694869434</v>
+        <v>0.1651207540009799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.16803684324576</v>
+        <v>0.216573</v>
       </c>
       <c r="H3">
-        <v>0.16803684324576</v>
+        <v>0.433146</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7890929340172668</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7760929277509313</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.454371142218628</v>
+        <v>0.5056283333333332</v>
       </c>
       <c r="N3">
-        <v>0.454371142218628</v>
+        <v>1.516885</v>
       </c>
       <c r="O3">
-        <v>0.1735579972265397</v>
+        <v>0.1699184850321774</v>
       </c>
       <c r="P3">
-        <v>0.1735579972265397</v>
+        <v>0.2029173622274604</v>
       </c>
       <c r="Q3">
-        <v>0.07635109240038851</v>
+        <v>0.109505445035</v>
       </c>
       <c r="R3">
-        <v>0.07635109240038851</v>
+        <v>0.65703267021</v>
       </c>
       <c r="S3">
-        <v>0.1735579972265397</v>
+        <v>0.1340814758978099</v>
       </c>
       <c r="T3">
-        <v>0.1735579972265397</v>
+        <v>0.157482729742606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.16803684324576</v>
+        <v>0.216573</v>
       </c>
       <c r="H4">
-        <v>0.16803684324576</v>
+        <v>0.433146</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7890929340172668</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7760929277509313</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.29226980139372</v>
+        <v>0.301533</v>
       </c>
       <c r="N4">
-        <v>0.29226980139372</v>
+        <v>0.9045989999999999</v>
       </c>
       <c r="O4">
-        <v>0.1116394873406926</v>
+        <v>0.10133140722047</v>
       </c>
       <c r="P4">
-        <v>0.1116394873406926</v>
+        <v>0.1210103883640477</v>
       </c>
       <c r="Q4">
-        <v>0.04911209480226593</v>
+        <v>0.06530390640900001</v>
       </c>
       <c r="R4">
-        <v>0.04911209480226593</v>
+        <v>0.391823438454</v>
       </c>
       <c r="S4">
-        <v>0.1116394873406926</v>
+        <v>0.07995989743169915</v>
       </c>
       <c r="T4">
-        <v>0.1116394873406926</v>
+        <v>0.093915306593731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.16803684324576</v>
+        <v>0.216573</v>
       </c>
       <c r="H5">
-        <v>0.16803684324576</v>
+        <v>0.433146</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7890929340172668</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7760929277509313</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.5026771653227911</v>
+        <v>0.1810393333333333</v>
       </c>
       <c r="N5">
-        <v>0.5026771653227911</v>
+        <v>0.543118</v>
       </c>
       <c r="O5">
-        <v>0.1920096457687428</v>
+        <v>0.06083901400152691</v>
       </c>
       <c r="P5">
-        <v>0.1920096457687428</v>
+        <v>0.07265420380467462</v>
       </c>
       <c r="Q5">
-        <v>0.08446828403256881</v>
+        <v>0.039208231538</v>
       </c>
       <c r="R5">
-        <v>0.08446828403256881</v>
+        <v>0.235249389228</v>
       </c>
       <c r="S5">
-        <v>0.1920096457687428</v>
+        <v>0.04800763606118245</v>
       </c>
       <c r="T5">
-        <v>0.1920096457687428</v>
+        <v>0.05638641374418277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,867 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.216573</v>
+      </c>
+      <c r="H6">
+        <v>0.433146</v>
+      </c>
+      <c r="I6">
+        <v>0.7890929340172668</v>
+      </c>
+      <c r="J6">
+        <v>0.7760929277509313</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.53576</v>
+      </c>
+      <c r="N6">
+        <v>1.60728</v>
+      </c>
+      <c r="O6">
+        <v>0.1800443557834102</v>
+      </c>
+      <c r="P6">
+        <v>0.2150097192344526</v>
+      </c>
+      <c r="Q6">
+        <v>0.11603115048</v>
+      </c>
+      <c r="R6">
+        <v>0.6961869028800001</v>
+      </c>
+      <c r="S6">
+        <v>0.1420717289583798</v>
+      </c>
+      <c r="T6">
+        <v>0.166867522495572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.216573</v>
+      </c>
+      <c r="H7">
+        <v>0.433146</v>
+      </c>
+      <c r="I7">
+        <v>0.7890929340172668</v>
+      </c>
+      <c r="J7">
+        <v>0.7760929277509313</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.656523</v>
+      </c>
+      <c r="N7">
+        <v>1.313046</v>
+      </c>
+      <c r="O7">
+        <v>0.2206272595789006</v>
+      </c>
+      <c r="P7">
+        <v>0.1756493279341005</v>
+      </c>
+      <c r="Q7">
+        <v>0.142185155679</v>
+      </c>
+      <c r="R7">
+        <v>0.568740622716</v>
+      </c>
+      <c r="S7">
+        <v>0.1740954115853038</v>
+      </c>
+      <c r="T7">
+        <v>0.1363202011738595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.027584</v>
+      </c>
+      <c r="I8">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J8">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.7952275</v>
+      </c>
+      <c r="N8">
+        <v>1.590455</v>
+      </c>
+      <c r="O8">
+        <v>0.2672394783835147</v>
+      </c>
+      <c r="P8">
+        <v>0.2127589984352641</v>
+      </c>
+      <c r="Q8">
+        <v>0.007311851786666667</v>
+      </c>
+      <c r="R8">
+        <v>0.04387111072</v>
+      </c>
+      <c r="S8">
+        <v>0.008952832243081209</v>
+      </c>
+      <c r="T8">
+        <v>0.01051537097967667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.027584</v>
+      </c>
+      <c r="I9">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J9">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5056283333333332</v>
+      </c>
+      <c r="N9">
+        <v>1.516885</v>
+      </c>
+      <c r="O9">
+        <v>0.1699184850321774</v>
+      </c>
+      <c r="P9">
+        <v>0.2029173622274604</v>
+      </c>
+      <c r="Q9">
+        <v>0.004649083982222221</v>
+      </c>
+      <c r="R9">
+        <v>0.04184175583999999</v>
+      </c>
+      <c r="S9">
+        <v>0.005692466175631601</v>
+      </c>
+      <c r="T9">
+        <v>0.01002895932830973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.027584</v>
+      </c>
+      <c r="I10">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J10">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.301533</v>
+      </c>
+      <c r="N10">
+        <v>0.9045989999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.10133140722047</v>
+      </c>
+      <c r="P10">
+        <v>0.1210103883640477</v>
+      </c>
+      <c r="Q10">
+        <v>0.002772495424</v>
+      </c>
+      <c r="R10">
+        <v>0.024952458816</v>
+      </c>
+      <c r="S10">
+        <v>0.003394719579935309</v>
+      </c>
+      <c r="T10">
+        <v>0.005980800508561723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.027584</v>
+      </c>
+      <c r="I11">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J11">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1810393333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.543118</v>
+      </c>
+      <c r="O11">
+        <v>0.06083901400152691</v>
+      </c>
+      <c r="P11">
+        <v>0.07265420380467462</v>
+      </c>
+      <c r="Q11">
+        <v>0.001664596323555556</v>
+      </c>
+      <c r="R11">
+        <v>0.014981366912</v>
+      </c>
+      <c r="S11">
+        <v>0.002038177478435534</v>
+      </c>
+      <c r="T11">
+        <v>0.003590851206566695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.027584</v>
+      </c>
+      <c r="I12">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J12">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.53576</v>
+      </c>
+      <c r="N12">
+        <v>1.60728</v>
+      </c>
+      <c r="O12">
+        <v>0.1800443557834102</v>
+      </c>
+      <c r="P12">
+        <v>0.2150097192344526</v>
+      </c>
+      <c r="Q12">
+        <v>0.004926134613333333</v>
+      </c>
+      <c r="R12">
+        <v>0.04433521152</v>
+      </c>
+      <c r="S12">
+        <v>0.006031694581177322</v>
+      </c>
+      <c r="T12">
+        <v>0.01062661028964335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.027584</v>
+      </c>
+      <c r="I13">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J13">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.656523</v>
+      </c>
+      <c r="N13">
+        <v>1.313046</v>
+      </c>
+      <c r="O13">
+        <v>0.2206272595789006</v>
+      </c>
+      <c r="P13">
+        <v>0.1756493279341005</v>
+      </c>
+      <c r="Q13">
+        <v>0.006036510144</v>
+      </c>
+      <c r="R13">
+        <v>0.036219060864</v>
+      </c>
+      <c r="S13">
+        <v>0.007391268891888679</v>
+      </c>
+      <c r="T13">
+        <v>0.008681267815424222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0486905</v>
+      </c>
+      <c r="H14">
+        <v>0.097381</v>
+      </c>
+      <c r="I14">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J14">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7952275</v>
+      </c>
+      <c r="N14">
+        <v>1.590455</v>
+      </c>
+      <c r="O14">
+        <v>0.2672394783835147</v>
+      </c>
+      <c r="P14">
+        <v>0.2127589984352641</v>
+      </c>
+      <c r="Q14">
+        <v>0.03872002458875</v>
+      </c>
+      <c r="R14">
+        <v>0.154880098355</v>
+      </c>
+      <c r="S14">
+        <v>0.04740986205754193</v>
+      </c>
+      <c r="T14">
+        <v>0.03712287345460751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0486905</v>
+      </c>
+      <c r="H15">
+        <v>0.097381</v>
+      </c>
+      <c r="I15">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J15">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5056283333333332</v>
+      </c>
+      <c r="N15">
+        <v>1.516885</v>
+      </c>
+      <c r="O15">
+        <v>0.1699184850321774</v>
+      </c>
+      <c r="P15">
+        <v>0.2029173622274604</v>
+      </c>
+      <c r="Q15">
+        <v>0.02461929636416666</v>
+      </c>
+      <c r="R15">
+        <v>0.147715778185</v>
+      </c>
+      <c r="S15">
+        <v>0.03014454295873591</v>
+      </c>
+      <c r="T15">
+        <v>0.03540567315654471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0486905</v>
+      </c>
+      <c r="H16">
+        <v>0.097381</v>
+      </c>
+      <c r="I16">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J16">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.301533</v>
+      </c>
+      <c r="N16">
+        <v>0.9045989999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.10133140722047</v>
+      </c>
+      <c r="P16">
+        <v>0.1210103883640477</v>
+      </c>
+      <c r="Q16">
+        <v>0.0146817925365</v>
+      </c>
+      <c r="R16">
+        <v>0.08809075521899999</v>
+      </c>
+      <c r="S16">
+        <v>0.01797679020883558</v>
+      </c>
+      <c r="T16">
+        <v>0.02111428126175497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.16803684324576</v>
-      </c>
-      <c r="H6">
-        <v>0.16803684324576</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.6328680137224511</v>
-      </c>
-      <c r="N6">
-        <v>0.6328680137224511</v>
-      </c>
-      <c r="O6">
-        <v>0.2417391747945909</v>
-      </c>
-      <c r="P6">
-        <v>0.2417391747945909</v>
-      </c>
-      <c r="Q6">
-        <v>0.106345143217135</v>
-      </c>
-      <c r="R6">
-        <v>0.106345143217135</v>
-      </c>
-      <c r="S6">
-        <v>0.2417391747945909</v>
-      </c>
-      <c r="T6">
-        <v>0.2417391747945909</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0486905</v>
+      </c>
+      <c r="H17">
+        <v>0.097381</v>
+      </c>
+      <c r="I17">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J17">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1810393333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.543118</v>
+      </c>
+      <c r="O17">
+        <v>0.06083901400152691</v>
+      </c>
+      <c r="P17">
+        <v>0.07265420380467462</v>
+      </c>
+      <c r="Q17">
+        <v>0.008814895659666666</v>
+      </c>
+      <c r="R17">
+        <v>0.052889373958</v>
+      </c>
+      <c r="S17">
+        <v>0.01079320046190893</v>
+      </c>
+      <c r="T17">
+        <v>0.01267693885392515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0486905</v>
+      </c>
+      <c r="H18">
+        <v>0.097381</v>
+      </c>
+      <c r="I18">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J18">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.53576</v>
+      </c>
+      <c r="N18">
+        <v>1.60728</v>
+      </c>
+      <c r="O18">
+        <v>0.1800443557834102</v>
+      </c>
+      <c r="P18">
+        <v>0.2150097192344526</v>
+      </c>
+      <c r="Q18">
+        <v>0.02608642228</v>
+      </c>
+      <c r="R18">
+        <v>0.15651853368</v>
+      </c>
+      <c r="S18">
+        <v>0.03194093224385307</v>
+      </c>
+      <c r="T18">
+        <v>0.03751558644923721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0486905</v>
+      </c>
+      <c r="H19">
+        <v>0.097381</v>
+      </c>
+      <c r="I19">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J19">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.656523</v>
+      </c>
+      <c r="N19">
+        <v>1.313046</v>
+      </c>
+      <c r="O19">
+        <v>0.2206272595789006</v>
+      </c>
+      <c r="P19">
+        <v>0.1756493279341005</v>
+      </c>
+      <c r="Q19">
+        <v>0.03196643313149999</v>
+      </c>
+      <c r="R19">
+        <v>0.127865732526</v>
+      </c>
+      <c r="S19">
+        <v>0.03914057910170813</v>
+      </c>
+      <c r="T19">
+        <v>0.03064785894481678</v>
       </c>
     </row>
   </sheetData>
